--- a/ActorRelationship/koreaMovieList.xlsx
+++ b/ActorRelationship/koreaMovieList.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>2002</t>
   </si>
@@ -62,9 +62,6 @@
     <t>검은 사제들</t>
   </si>
   <si>
-    <t>1976</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>나탈리</t>
   </si>
   <si>
-    <t>낙동강은 흐르는가</t>
-  </si>
-  <si>
     <t>남과 여</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>아프리카</t>
   </si>
   <si>
-    <t>1986</t>
-  </si>
-  <si>
     <t>조선마술사</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>터널</t>
   </si>
   <si>
-    <t>태</t>
-  </si>
-  <si>
     <t>태극기 휘날리며</t>
   </si>
   <si>
@@ -198,12 +186,6 @@
   </si>
   <si>
     <t>피도 눈물도 없이</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>피아골</t>
   </si>
   <si>
     <t>히말라야</t>
@@ -242,9 +224,6 @@
     <t>주경중,이성재,김지훈,박현진,김기연,임소은,전병주,황희숙</t>
   </si>
   <si>
-    <t>임권택,진유영,장혁,이해룡,이예민,유영국,김운하,곽준호,황백,김지혜,김희라,박암,서정일,조남호,장정국,박종설,최성규,강동규,주상호,한명환,정순용</t>
-  </si>
-  <si>
     <t>이윤기,전도연,공유,박병은,이미소,노강민,강지우,정선경,윤세아,전익령,박민지,김혜옥,김영선,정순원,강신철,이지훈,민무제,김세인,카티 오우티넨</t>
   </si>
   <si>
@@ -323,9 +302,6 @@
     <t>김성훈,하정우,배두나,오달수,신정근,남지현,김해숙,정석용,박혁권,조현철,유승목,이철민,박진우,이한서,예수정,하덕성,서현우,한성천,이창직,안현빈,강신철,이상희,김종수,이동진,황병국,최귀화,배유람</t>
   </si>
   <si>
-    <t>하명중,이혜숙,마흥식,채희아,원미원,채희아,백황기,조정수,원미원,조은영,조학자,최일,송일근,추봉,나소운</t>
-  </si>
-  <si>
     <t>강제규,장동건,원빈,이은주,공형진,장민호,이영란,조윤희,안길강,박길수,정진,조운,황택하,이주원,김효열,조원희,심우명,윤희원,엄성모,전재형,고도희,주다영,김경환,민지혁,김만기,이동호,박진국,정충호,강범구,최승환,이정훈,박정우,한재민,이용환,이윤건,박수일,김정태,권태원,이건우,손재곤,전승재,박유신,김석환,임형준,김수련,주명철,박성희,전인걸,규휘,염철호,정윤민,김수로,최민식,박동빈,정호빈,정두홍,김해곤</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
   </si>
   <si>
     <t>류승완,이혜영,전도연,정재영,신구,류승범,백일섭,이영후,김영인,김수현,정두홍,백찬기,천성훈,송경철,안길강</t>
-  </si>
-  <si>
-    <t>이강천,김진규,이예춘,노경희,허장강,윤왕국,박봉옥,박향란,윤혁,송돈상,이익,이학규,김생,배항렬,이원철,김영희,곽건,조남석,김익환</t>
   </si>
   <si>
     <t>이석훈,황정민,정우,조성하,김인권,라미란,김원해,이해영,전배수,정재헌,정규수,성병숙,손영순,김민강,임채선,박지홍,양희명,권신우,이정춘,성규찬,현진,정유미,유선,정지영,조달환</t>
@@ -403,12 +376,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,477 +705,444 @@
     <col min="2" max="2" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.100000000000001" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/ActorRelationship/koreaMovieList.xlsx
+++ b/ActorRelationship/koreaMovieList.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$36</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
   <si>
     <t>2002</t>
   </si>
@@ -89,15 +89,6 @@
     <t>남극일기</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>남부군</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
     <t>바람의 파이터</t>
   </si>
   <si>
@@ -110,12 +101,6 @@
     <t>바르게 살자</t>
   </si>
   <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>바보들의 행진</t>
-  </si>
-  <si>
     <t>순수의 시대</t>
   </si>
   <si>
@@ -137,9 +122,6 @@
     <t>아저씨</t>
   </si>
   <si>
-    <t>아찌 아빠</t>
-  </si>
-  <si>
     <t>아프리카</t>
   </si>
   <si>
@@ -171,12 +153,6 @@
   </si>
   <si>
     <t>태극기 휘날리며</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>태백산맥</t>
   </si>
   <si>
     <t>태풍</t>
@@ -230,9 +206,6 @@
     <t>임필성,송강호,유지태,김경익,박희순,윤제문,최덕문,강혜정</t>
   </si>
   <si>
-    <t>정지영,안성기,이혜영,최진실,최민수,강태기,트위스트 김,조형기,독고영재,신윤정,허기호,문창근,나기수,박홍근,남포동,박용팔,김지영,장승화,안종환,배병수,장병조,최명숙,임대호,임창정,노재희,차양희,김영신,강능원,조병곤,이진우,전범수,백종선,박정수,황미선,김우석,문혁,정형채,이학재,전미숙,이은석</t>
-  </si>
-  <si>
     <t>양윤호,양동근,히라야마 아야,카토 마사야,정태우,정두홍,박성민,코쿠부 사치코,코사카 후우마,소노다 마유,최지웅,김규현,하상원,강재병,이한갈,성준용,김곽경희,염철호,김정태,김성오,민영,김승기,김원식</t>
   </si>
   <si>
@@ -245,9 +218,6 @@
     <t>라희찬,정재영,손병호,이영은,고창석,이철민,주진모,이한위,유민석,조덕현,이지용,공호석,조시내,이재용,엄수정,황춘하,황효은,김관우,손병욱,이문수,이해영,지상민,이진혁,김대령,이상훈,최현,김승훈,김지경,김민진,박종원,임지은,신구,이용이,민지환,김규철</t>
   </si>
   <si>
-    <t>하길종,윤문섭,하재영,이영옥,김영숙,김상배,이승현,최남현,정세근,문오장,박규현,이철,이일웅,김일영,윤일봉,박암,하명중,김희라,이기동</t>
-  </si>
-  <si>
     <t>안상훈,신하균,장혁,강한나,강하늘,손병호,이재용,최무성,강경헌,김다예,김구택,기주봉,김승기,이소윤,황금희,김사희,김영,노행하,정아미,오하늬,조희봉</t>
   </si>
   <si>
@@ -269,9 +239,6 @@
     <t>이정범,원빈,김새론,김태훈,김희원,김성오,이종필,타나용 웡트라쿨,김효서,송영창,백수련,남경읍,박성택,곽도원,이재원,조석현,손상경,황민호,한철우,권성덕,조재윤,정민성,선호진,김효민,장준녕,홍소희,이문호,위지웅,류성훈,유연미,엠제이레드,김영근,김시권,송용호,정도원,공병철,배영한,한근섭,권용환,서동석,기세형</t>
   </si>
   <si>
-    <t>신승수,최민수,심은하,박재훈,강신범,강신성일</t>
-  </si>
-  <si>
     <t>신승수,김규리,이영진,이요원,조은지,이제락,성지루,주여종,박정우,박영규,이은경,김강일,이창</t>
   </si>
   <si>
@@ -303,9 +270,6 @@
   </si>
   <si>
     <t>강제규,장동건,원빈,이은주,공형진,장민호,이영란,조윤희,안길강,박길수,정진,조운,황택하,이주원,김효열,조원희,심우명,윤희원,엄성모,전재형,고도희,주다영,김경환,민지혁,김만기,이동호,박진국,정충호,강범구,최승환,이정훈,박정우,한재민,이용환,이윤건,박수일,김정태,권태원,이건우,손재곤,전승재,박유신,김석환,임형준,김수련,주명철,박성희,전인걸,규휘,염철호,정윤민,김수로,최민식,박동빈,정호빈,정두홍,김해곤</t>
-  </si>
-  <si>
-    <t>임권택,안성기,김명곤,김갑수,오정해,신현준,최동준,정경순,방은진,이호재,국정환,박용진,안석환,윤주상,한재상,박길수,윤동원,변지훈</t>
   </si>
   <si>
     <t>곽경택,장동건,이정재,이미연,김갑수,데이비드 맥기니스,차트하퐁 판타나운쿨,허욱,선호진,강신성일,김란흔,민지환,이은비,지영우,최지웅,김혜정,조운,이환,민준호,강풍,이경덕,오승찬,김형진,곽인준,변경화,이주헌,최운환,유승원</t>
@@ -694,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,13 +671,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -735,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,348 +765,304 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
